--- a/Reheated Rankine cycle.xlsx
+++ b/Reheated Rankine cycle.xlsx
@@ -768,7 +768,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>State_1</t>
+          <t>State 1</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -794,7 +794,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>State_2</t>
+          <t>State 2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -824,7 +824,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>State_3</t>
+          <t>State 3</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -852,7 +852,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>State_4</t>
+          <t>State 4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -882,7 +882,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>State_5</t>
+          <t>State 5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -912,7 +912,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>State_6</t>
+          <t>State 6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
